--- a/webslides/clA/sample.xlsx
+++ b/webslides/clA/sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/634.nakajima/Documents/git/634nakajima.github.io/webslides/clA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6648193-B4A6-374B-9051-25D117632AD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F013BB-CC7E-C643-A25B-D3769F9C7193}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="成績表" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>順位</t>
     <rPh sb="0" eb="2">
@@ -104,9 +104,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>工芸太郎</t>
+    <t>田中太郎</t>
     <rPh sb="0" eb="2">
-      <t xml:space="preserve">コウゲイ </t>
+      <t xml:space="preserve">タナカ </t>
     </rPh>
     <rPh sb="2" eb="4">
       <t>タロウ</t>
@@ -114,9 +114,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>工芸花子</t>
+    <t>山田花子</t>
     <rPh sb="0" eb="2">
-      <t xml:space="preserve">コウゲイ </t>
+      <t xml:space="preserve">ヤマダ </t>
     </rPh>
     <rPh sb="2" eb="4">
       <t>ハナコ</t>
@@ -124,12 +124,42 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>坂上次郎</t>
+    <t>佐藤次郎</t>
     <rPh sb="0" eb="2">
-      <t xml:space="preserve">サカウエ </t>
+      <t xml:space="preserve">サトウ </t>
     </rPh>
     <rPh sb="2" eb="4">
       <t>ジロウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>課題1-6
+スマホ利用者はこちらからグラフ作成</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カダイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>課題1-3
+スマホ利用者はセルをタップし出てくるメニュー右端「フィル」をタップした後、セル右下をドラッグしてオートフィル。</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カダイ </t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t xml:space="preserve">デテクル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>課題1-5
+スマホ利用者は、上記と同様の手順でオートフィルを用いる。</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カダイ </t>
+    </rPh>
+    <rPh sb="6" eb="16">
+      <t xml:space="preserve">ジョウキトドウヨウ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -185,7 +215,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,24 +224,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -235,10 +253,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -254,9 +270,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -269,101 +283,30 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -379,55 +322,46 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -438,6 +372,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -780,7 +723,7 @@
   <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D11" sqref="B11:D11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -790,157 +733,204 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-    </row>
-    <row r="3" spans="1:19" ht="15" thickBot="1">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="6"/>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="16"/>
-    </row>
-    <row r="4" spans="1:19" ht="15" thickTop="1">
-      <c r="A4" s="7" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="6">
         <v>80</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="6">
         <v>98</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="6">
         <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="6">
         <v>65</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="6">
         <v>65</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="6">
         <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="6">
         <v>53</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="6">
         <v>12</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="6">
         <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="6">
         <v>75</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="6">
         <v>47</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="6">
         <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="6">
         <v>100</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="6">
         <v>85</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="6">
         <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="6">
         <v>90</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="6">
         <v>80</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="6">
         <v>85</v>
       </c>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:19" ht="50" customHeight="1">
+      <c r="A10" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:19" ht="50" customHeight="1">
+      <c r="A11" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
       <c r="S11" s="1"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
       <c r="S12" s="1"/>
     </row>
     <row r="13" spans="1:19">
       <c r="S13" s="1"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" ht="32" customHeight="1">
+      <c r="A14" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
       <c r="S14" s="1"/>
     </row>
     <row r="15" spans="1:19">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11" t="str">
+        <f>B3</f>
+        <v>田中太郎</v>
+      </c>
+      <c r="C15" s="11" t="str">
+        <f t="shared" ref="C15:D15" si="0">C3</f>
+        <v>山田花子</v>
+      </c>
+      <c r="D15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>佐藤次郎</v>
+      </c>
       <c r="S15" s="1"/>
     </row>
     <row r="16" spans="1:19">
+      <c r="A16" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="8">
+        <f>B10</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="8">
+        <f t="shared" ref="C16:D16" si="1">C10</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="S16" s="1"/>
     </row>
     <row r="17" spans="5:19">
@@ -950,8 +940,8 @@
       <c r="S18" s="1"/>
     </row>
     <row r="19" spans="5:19">
-      <c r="E19" s="12"/>
-      <c r="J19" s="12"/>
+      <c r="E19" s="4"/>
+      <c r="J19" s="4"/>
       <c r="S19" s="1"/>
     </row>
     <row r="20" spans="5:19">
@@ -973,21 +963,24 @@
       <c r="S25" s="1"/>
     </row>
     <row r="37" spans="5:8">
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
     </row>
     <row r="38" spans="5:8">
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="E37:H38"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="E11:I11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
